--- a/public/DataAbsen/absen2.xlsx
+++ b/public/DataAbsen/absen2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11066A4-8289-44D8-BFAC-7651A6B352E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1814154E-78EF-4358-9CC7-320579CBBD14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{16896E10-2D24-4960-8FAF-9F285602FEE3}"/>
   </bookViews>
@@ -63,7 +63,7 @@
     <t>work_time</t>
   </si>
   <si>
-    <t>Fulan</t>
+    <t>Ridho</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +478,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -516,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -554,7 +554,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -592,7 +592,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -630,7 +630,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -668,7 +668,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -706,7 +706,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -744,7 +744,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -782,7 +782,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -820,7 +820,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -858,7 +858,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -896,7 +896,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -934,7 +934,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -972,7 +972,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -1010,7 +1010,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -1048,7 +1048,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
